--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3948669.638801233</v>
+        <v>4055438.51733211</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7154230.607260355</v>
+        <v>7126373.887583655</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>152.421398307199</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>198.1396276091177</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>62.38571649831724</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>201.3836821238477</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>260.0981358498379</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>338.6670452394001</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.37261761772293</v>
       </c>
       <c r="D7" t="n">
-        <v>18.40031177973805</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>104.0575451467303</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>240.1374052438113</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>54.45061629504106</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>205.2240776919407</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="E13" t="n">
-        <v>114.2821160880066</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>82.25298866282583</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>33.48499328953133</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>100.5140508960364</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>172.1659031415427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2761,16 +2763,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.547332689898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>144.108843301494</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541834</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808113</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972053</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>90.00079239153432</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>154.5058101250899</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>216.7094028874714</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460534</v>
+        <v>2175.739488336033</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460534</v>
+        <v>1806.776971395621</v>
       </c>
       <c r="D2" t="n">
-        <v>373.9157775549433</v>
+        <v>1448.511272788871</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549433</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460534</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4422,13 +4424,13 @@
         <v>1614.486495938517</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9218676324038</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>1844.640184885121</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>1694.523545472786</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>1546.610451890393</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>1399.720504392482</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2365.710580560016</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>2302.694705309191</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.549477544054</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="W4" t="n">
-        <v>793.1323075070932</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="X4" t="n">
-        <v>589.7144467759339</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.9218676324038</v>
+        <v>2013.576367813028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>736.6224273402288</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="C5" t="n">
-        <v>736.6224273402288</v>
+        <v>1133.697549060844</v>
       </c>
       <c r="D5" t="n">
-        <v>736.6224273402288</v>
+        <v>775.431850454094</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>775.431850454094</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4595,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>736.6224273402288</v>
+        <v>1502.660066001256</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>638.4776125255215</v>
+        <v>170.6096278019662</v>
       </c>
       <c r="C7" t="n">
-        <v>638.4776125255215</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106346</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282415</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
         <v>157.1019332386097</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.115628253779</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X7" t="n">
-        <v>820.1260773557613</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y7" t="n">
-        <v>820.1260773557613</v>
+        <v>352.2580926322059</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140706</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C8" t="n">
-        <v>926.2736972002947</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>926.2736972002947</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>926.2736972002947</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>1988.713405456775</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.97538618064</v>
+        <v>1615.247647195695</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204828</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.476813167026</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1782.463468325777</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1782.463468325777</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1493.360601451421</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1238.676113245534</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W10" t="n">
-        <v>949.2589432085734</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X10" t="n">
-        <v>721.2693923105561</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.476813167026</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300683</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5276,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4187.50792378386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3932.823435577973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3643.406265541013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3415.416714642995</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3194.624135499465</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2418.621364762389</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>4101.537227310363</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>4653.44695754965</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6180,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1870.601831589881</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,46 +6232,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995193</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,10 +6496,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333972</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276705</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831312</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213311</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.08695624706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.50026379638</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.75711663939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315926</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912511</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660665</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337792</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063897</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654574</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229214</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519664</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.333946200129</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263768</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081894</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
         <v>1344.266747951538</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247061</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796382</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639391</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612652</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229213</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.92099021381</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519664</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.333946200129</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263768</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081895</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3809.631423131744</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7642,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.4638174991043</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2040.996070613739</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>2040.996070613739</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V46" t="n">
-        <v>1786.311582407852</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W46" t="n">
-        <v>1496.894412370891</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X46" t="n">
-        <v>1268.904861472874</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460943</v>
+        <v>231.2582814363236</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>84.94186588374657</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883063123</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E13" t="n">
-        <v>32.15184655856257</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>66.36248435538653</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>252.6994810997128</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>125.1956044930007</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>79.97174018228532</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4.506629716718351</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>56.43317025503485</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>62.89964020219841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>9.00025250156574</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>622490.7110133481</v>
+        <v>629026.831264526</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>622490.7110133481</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642849</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642835</v>
-      </c>
       <c r="M2" t="n">
-        <v>821041.7698642839</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642836</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900066</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26392,19 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551183</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.146459034217211e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307092</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719715</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719715</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481313</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481315</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-519761.6496982254</v>
+        <v>-519761.6496982253</v>
       </c>
       <c r="C6" t="n">
+        <v>594990.1338776945</v>
+      </c>
+      <c r="D6" t="n">
         <v>594990.1338776944</v>
       </c>
-      <c r="D6" t="n">
-        <v>433786.2856294811</v>
-      </c>
       <c r="E6" t="n">
-        <v>373104.2395970241</v>
+        <v>191031.2597798338</v>
       </c>
       <c r="F6" t="n">
-        <v>698516.7014043796</v>
+        <v>698516.7014043792</v>
       </c>
       <c r="G6" t="n">
-        <v>698516.7014043796</v>
+        <v>698516.7014043793</v>
       </c>
       <c r="H6" t="n">
-        <v>698516.7014043793</v>
+        <v>698516.7014043794</v>
       </c>
       <c r="I6" t="n">
-        <v>698516.7014043796</v>
+        <v>698516.7014043794</v>
       </c>
       <c r="J6" t="n">
-        <v>530911.523594397</v>
+        <v>530911.5235943969</v>
       </c>
       <c r="K6" t="n">
-        <v>682951.7082919246</v>
+        <v>698516.7014043794</v>
       </c>
       <c r="L6" t="n">
-        <v>654085.4562773642</v>
+        <v>698516.7014043797</v>
       </c>
       <c r="M6" t="n">
-        <v>617324.3983500435</v>
+        <v>565909.4076754524</v>
       </c>
       <c r="N6" t="n">
-        <v>702379.4262855563</v>
+        <v>698516.7014043794</v>
       </c>
       <c r="O6" t="n">
-        <v>702379.4262855551</v>
+        <v>698516.7014043792</v>
       </c>
       <c r="P6" t="n">
         <v>698516.7014043798</v>
@@ -26707,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202.261643313484</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>183.7907424631441</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>158.3629794988947</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>24.32597326518948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>121.8322342224238</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>68.20900050231131</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>153.8742034809049</v>
       </c>
       <c r="D7" t="n">
-        <v>130.2151612384743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>302.8185005949811</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>109.1035634736018</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>135.3184090364009</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>46.91356563188731</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,7 +32323,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543351</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>134.72848811719</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>314.5984986256103</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>276.96469254416</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33424,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,7 +33508,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>508.8976500257888</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
-        <v>555.0107214892114</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>568.8264345569168</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,7 +34792,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422174</v>
+        <v>566.6829634324466</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>271.5293621272314</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35027,13 +35029,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844294</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,10 +35889,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997605</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0.754080702859717</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>180.6240912112801</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>150.1270658774933</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,7 +37156,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>366.7636161037705</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
-        <v>423.6690094058781</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>430.2720547770426</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4055438.51733211</v>
+        <v>4051301.360081959</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.67115609116981</v>
       </c>
       <c r="E2" t="n">
-        <v>198.1396276091177</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="T4" t="n">
-        <v>62.38571649831724</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>95.05800026893836</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>338.6670452394001</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>13.37261761772293</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>62.18685702183</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>173.726502694136</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.1374052438113</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>90.69811547110028</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>205.2240776919407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>120.7871326503968</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>144.108843301494</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E37" t="n">
-        <v>90.00079239153432</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>216.7094028874714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.776971395621</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.511272788871</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.576367813028</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885121</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472786</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890393</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392482</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700761</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560016</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T4" t="n">
-        <v>2302.694705309191</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>2013.576367813028</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>2013.576367813028</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>2013.576367813028</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>2013.576367813028</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>2013.576367813028</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1502.660066001256</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="C5" t="n">
-        <v>1133.697549060844</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D5" t="n">
-        <v>775.431850454094</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>775.431850454094</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1502.660066001256</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1502.660066001256</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429752</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.6096278019662</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386097</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386097</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386097</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302233</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322059</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.2580926322059</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2262.158805073962</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1931.095917730392</v>
       </c>
       <c r="W8" t="n">
-        <v>1988.713405456775</v>
+        <v>1578.327262460278</v>
       </c>
       <c r="X8" t="n">
-        <v>1615.247647195695</v>
+        <v>1204.861504199198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.247647195695</v>
+        <v>814.722172223386</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,34 +4871,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>142.8610446196195</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1140.030734404658</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>850.6135643676972</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>622.6240134696799</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.8314343261497</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5418,16 +5418,16 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5655,16 +5655,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,19 +5889,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8238677453423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>215.8238677453423</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,34 +6925,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876688</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
@@ -7657,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2264.108249235165</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2009.423761029278</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1720.006590992318</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>231.2582814363236</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>84.94186588374657</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.9556134883066534</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-1.187794616238935e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4693302300329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>19.50758019582713</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.506629716718351</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E37" t="n">
-        <v>56.43317025503485</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>9.00025250156574</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612069.33338264</v>
+        <v>612069.3333826402</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642835</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.146459034217211e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719625</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,16 +26438,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719635</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.368461719715</v>
-      </c>
       <c r="K4" t="n">
-        <v>7507.368461719715</v>
+        <v>7507.368461719659</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719659</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-519761.6496982253</v>
+        <v>-519761.6496982251</v>
       </c>
       <c r="C6" t="n">
-        <v>594990.1338776945</v>
+        <v>594990.1338776944</v>
       </c>
       <c r="D6" t="n">
         <v>594990.1338776944</v>
       </c>
       <c r="E6" t="n">
-        <v>191031.2597798338</v>
+        <v>190683.8805254766</v>
       </c>
       <c r="F6" t="n">
-        <v>698516.7014043792</v>
+        <v>698169.3221500224</v>
       </c>
       <c r="G6" t="n">
-        <v>698516.7014043793</v>
+        <v>698169.3221500224</v>
       </c>
       <c r="H6" t="n">
-        <v>698516.7014043794</v>
+        <v>698169.3221500226</v>
       </c>
       <c r="I6" t="n">
-        <v>698516.7014043794</v>
+        <v>698169.3221500224</v>
       </c>
       <c r="J6" t="n">
-        <v>530911.5235943969</v>
+        <v>530564.1443400399</v>
       </c>
       <c r="K6" t="n">
-        <v>698516.7014043794</v>
+        <v>698169.3221500225</v>
       </c>
       <c r="L6" t="n">
-        <v>698516.7014043797</v>
+        <v>698169.3221500225</v>
       </c>
       <c r="M6" t="n">
-        <v>565909.4076754524</v>
+        <v>565562.0284210958</v>
       </c>
       <c r="N6" t="n">
-        <v>698516.7014043794</v>
+        <v>698169.3221500223</v>
       </c>
       <c r="O6" t="n">
-        <v>698516.7014043792</v>
+        <v>698169.3221500224</v>
       </c>
       <c r="P6" t="n">
-        <v>698516.7014043798</v>
+        <v>698169.3221500223</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.0118855295132</v>
       </c>
       <c r="E2" t="n">
-        <v>183.7907424631441</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>49.80376291451478</v>
       </c>
       <c r="T4" t="n">
-        <v>158.3629794988947</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>270.2148915020692</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.20900050231131</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8742034809049</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>86.42861599638235</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>77.31874743432601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>109.1035634736018</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>55.73584717546889</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>46.91356563188731</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>541.2980521010961</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>316.0872899694772</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>316.0872899694772</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>566.6829634324466</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5293621272314</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>336.3802954844296</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>271.5293621272318</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4051301.360081959</v>
+        <v>4053061.890384743</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.67115609116981</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>67.09851484951503</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>100.6867690249414</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>144.8586974472227</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>95.05800026893836</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>95.05800026893903</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>62.18685702183</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>137.7336954102807</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>173.726502694136</v>
+        <v>163.1366525438128</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>94.84422372878601</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695477</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571659</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>27.0291980517616</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577434</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C2" t="n">
-        <v>162.4537609173316</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D2" t="n">
         <v>69.85663355251364</v>
@@ -4330,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2494.563050774383</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2494.563050774383</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2240.981990038562</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1909.919102694992</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1557.150447424877</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1183.684689163798</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,22 +4409,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>615.7400994359284</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>467.8270058535353</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>320.9370583556249</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>152.9505936639035</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>152.9505936639035</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1490.124203461141</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1490.124203461141</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.342820051861</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C5" t="n">
         <v>1284.324637962024</v>
@@ -4555,7 +4555,7 @@
         <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2341.621938836789</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2010.559051493218</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1657.790396223104</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051861</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.7064461033923</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>682.7064461033923</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1497.321175215628</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.354910933632</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428.1223321592641</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C8" t="n">
-        <v>428.1223321592641</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2262.158805073962</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V8" t="n">
-        <v>1931.095917730392</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W8" t="n">
-        <v>1578.327262460278</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X8" t="n">
-        <v>1204.861504199198</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y8" t="n">
-        <v>814.722172223386</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>614.0149486813318</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>445.0787657534249</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>294.9621263410892</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>147.0490327586961</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>147.0490327586961</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>147.0490327586961</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>147.0490327586961</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>1016.455992655102</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>795.6634135115715</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2149.810879820877</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5181,22 +5181,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5266,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6232,31 +6232,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,25 +6478,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6730,19 +6730,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,7 +6776,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7259,7 +7259,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
         <v>1520.445529061503</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7496,7 +7496,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
         <v>1520.445529061503</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,55 +7645,55 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
         <v>1520.445529061503</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019047</v>
+        <v>84.94186588374697</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883066534</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>84.94186588374703</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.187794616238935e-12</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664508</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719625</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,16 +26438,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719659</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719659</v>
+        <v>7507.368461719623</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-519761.6496982251</v>
+        <v>-519761.6496982258</v>
       </c>
       <c r="C6" t="n">
-        <v>594990.1338776944</v>
+        <v>594990.1338776943</v>
       </c>
       <c r="D6" t="n">
-        <v>594990.1338776944</v>
+        <v>594990.1338776941</v>
       </c>
       <c r="E6" t="n">
-        <v>190683.8805254766</v>
+        <v>190996.521854398</v>
       </c>
       <c r="F6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="G6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="H6" t="n">
-        <v>698169.3221500226</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="I6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789437</v>
       </c>
       <c r="J6" t="n">
-        <v>530564.1443400399</v>
+        <v>530876.7856689611</v>
       </c>
       <c r="K6" t="n">
-        <v>698169.3221500225</v>
+        <v>698481.9634789439</v>
       </c>
       <c r="L6" t="n">
-        <v>698169.3221500225</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="M6" t="n">
-        <v>565562.0284210958</v>
+        <v>565874.6697500172</v>
       </c>
       <c r="N6" t="n">
-        <v>698169.3221500223</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="O6" t="n">
-        <v>698169.3221500224</v>
+        <v>698481.9634789437</v>
       </c>
       <c r="P6" t="n">
-        <v>698169.3221500223</v>
+        <v>698481.9634789437</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.0118855295132</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>56.35370054927932</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.109826178959167</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>49.80376291451478</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>270.2148915020692</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>155.987249859523</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>86.42861599638235</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>148.7893029263103</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>77.31874743432601</v>
+        <v>87.90859758464924</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>9.95237147511456</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29571,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>618.3047484269334</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,7 +31858,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>541.2980521010961</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0872899694772</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>316.0872899694772</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980277</v>
+        <v>420.36654787987</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844296</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5293621272318</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>479.7503686470593</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>407.3236446867659</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>173.4910455250327</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>173.4910455250327</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
